--- a/grabDoll/config/guild.xlsx
+++ b/grabDoll/config/guild.xlsx
@@ -220,7 +220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,6 +242,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -544,7 +545,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -623,13 +624,16 @@
       <c r="F3">
         <v>700</v>
       </c>
+      <c r="G3" s="7">
+        <v>100005</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="3">
         <v>130002</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -642,6 +646,9 @@
       </c>
       <c r="F4">
         <v>700</v>
+      </c>
+      <c r="G4" s="7">
+        <v>100005</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75">
@@ -649,7 +656,7 @@
         <v>130003</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>25</v>
@@ -662,6 +669,9 @@
       </c>
       <c r="F5">
         <v>700</v>
+      </c>
+      <c r="G5" s="7">
+        <v>100005</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75">
@@ -669,7 +679,7 @@
         <v>130004</v>
       </c>
       <c r="B6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -682,6 +692,9 @@
       </c>
       <c r="F6">
         <v>700</v>
+      </c>
+      <c r="G6" s="7">
+        <v>100006</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75">
@@ -689,7 +702,7 @@
         <v>130005</v>
       </c>
       <c r="B7" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>26</v>
@@ -702,6 +715,9 @@
       </c>
       <c r="F7">
         <v>700</v>
+      </c>
+      <c r="G7" s="7">
+        <v>100006</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75">
@@ -709,7 +725,7 @@
         <v>130006</v>
       </c>
       <c r="B8" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
@@ -722,6 +738,9 @@
       </c>
       <c r="F8">
         <v>700</v>
+      </c>
+      <c r="G8" s="7">
+        <v>100006</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75">
@@ -729,7 +748,7 @@
         <v>130007</v>
       </c>
       <c r="B9" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
@@ -742,6 +761,9 @@
       </c>
       <c r="F9">
         <v>700</v>
+      </c>
+      <c r="G9" s="7">
+        <v>100007</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75">
@@ -749,7 +771,7 @@
         <v>130008</v>
       </c>
       <c r="B10" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -762,6 +784,9 @@
       </c>
       <c r="F10">
         <v>700</v>
+      </c>
+      <c r="G10" s="7">
+        <v>100008</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75">
@@ -769,7 +794,7 @@
         <v>130009</v>
       </c>
       <c r="B11" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
@@ -782,6 +807,9 @@
       </c>
       <c r="F11">
         <v>700</v>
+      </c>
+      <c r="G11" s="7">
+        <v>100009</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75">
@@ -789,7 +817,7 @@
         <v>130010</v>
       </c>
       <c r="B12" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>28</v>
@@ -802,6 +830,9 @@
       </c>
       <c r="F12">
         <v>700</v>
+      </c>
+      <c r="G12" s="7">
+        <v>100009</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75">
@@ -809,7 +840,7 @@
         <v>130011</v>
       </c>
       <c r="B13" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
@@ -822,6 +853,9 @@
       </c>
       <c r="F13">
         <v>700</v>
+      </c>
+      <c r="G13" s="7">
+        <v>100009</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75">

--- a/grabDoll/config/guild.xlsx
+++ b/grabDoll/config/guild.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <r>
       <rPr>
@@ -137,6 +137,26 @@
   </si>
   <si>
     <t>Pve</t>
+  </si>
+  <si>
+    <t>随便点击就算通过</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>isTip</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>镂空的尺寸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>scale</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下按钮 抓起来一个</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -542,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -553,13 +573,15 @@
     <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="4" width="68.25" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
-    <col min="7" max="7" width="32.25" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="32.25" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,17 +594,23 @@
       <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>7</v>
+      <c r="E1" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -595,17 +623,23 @@
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="3">
         <v>130001</v>
       </c>
@@ -619,16 +653,22 @@
         <v>6</v>
       </c>
       <c r="E3" s="5">
-        <v>200</v>
-      </c>
-      <c r="F3">
-        <v>700</v>
-      </c>
-      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>130</v>
+      </c>
+      <c r="G3">
+        <v>600</v>
+      </c>
+      <c r="H3">
+        <v>75</v>
+      </c>
+      <c r="I3" s="7">
         <v>100005</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="3">
         <v>130002</v>
       </c>
@@ -642,16 +682,22 @@
         <v>17</v>
       </c>
       <c r="E4" s="5">
-        <v>200</v>
-      </c>
-      <c r="F4">
-        <v>700</v>
-      </c>
-      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>110</v>
+      </c>
+      <c r="G4">
+        <v>610</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4" s="7">
         <v>100005</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75">
+    <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="3">
         <v>130003</v>
       </c>
@@ -665,39 +711,51 @@
         <v>16</v>
       </c>
       <c r="E5" s="5">
-        <v>200</v>
-      </c>
-      <c r="F5">
-        <v>700</v>
-      </c>
-      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>310</v>
+      </c>
+      <c r="G5">
+        <v>825</v>
+      </c>
+      <c r="H5">
+        <v>72</v>
+      </c>
+      <c r="I5" s="7">
         <v>100005</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75">
+    <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="3">
         <v>130004</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E6" s="5">
-        <v>200</v>
-      </c>
-      <c r="F6">
-        <v>700</v>
-      </c>
-      <c r="G6" s="7">
-        <v>100006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>430</v>
+      </c>
+      <c r="G6">
+        <v>840</v>
+      </c>
+      <c r="H6">
+        <v>72</v>
+      </c>
+      <c r="I6" s="7">
+        <v>100005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="3">
         <v>130005</v>
       </c>
@@ -705,22 +763,28 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
         <v>200</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>700</v>
       </c>
-      <c r="G7" s="7">
+      <c r="H7">
+        <v>75</v>
+      </c>
+      <c r="I7" s="7">
         <v>100006</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75">
+    <row r="8" spans="1:9" ht="15.75">
       <c r="A8" s="3">
         <v>130006</v>
       </c>
@@ -728,22 +792,28 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
         <v>200</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>700</v>
       </c>
-      <c r="G8" s="7">
+      <c r="H8">
+        <v>75</v>
+      </c>
+      <c r="I8" s="7">
         <v>100006</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75">
+    <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="3">
         <v>130007</v>
       </c>
@@ -754,65 +824,83 @@
         <v>27</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <v>200</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>700</v>
       </c>
-      <c r="G9" s="7">
-        <v>100007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75">
+      <c r="H9">
+        <v>75</v>
+      </c>
+      <c r="I9" s="7">
+        <v>100006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="3">
         <v>130008</v>
       </c>
       <c r="B10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
         <v>200</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>700</v>
       </c>
-      <c r="G10" s="7">
-        <v>100008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75">
+      <c r="H10">
+        <v>75</v>
+      </c>
+      <c r="I10" s="7">
+        <v>100007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="3">
         <v>130009</v>
       </c>
       <c r="B11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
         <v>200</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>700</v>
       </c>
-      <c r="G11" s="7">
-        <v>100009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75">
+      <c r="H11">
+        <v>75</v>
+      </c>
+      <c r="I11" s="7">
+        <v>100008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="3">
         <v>130010</v>
       </c>
@@ -820,49 +908,90 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
         <v>200</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>700</v>
       </c>
-      <c r="G12" s="7">
+      <c r="H12">
+        <v>75</v>
+      </c>
+      <c r="I12" s="7">
         <v>100009</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75">
+    <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="3">
         <v>130011</v>
       </c>
       <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>200</v>
+      </c>
+      <c r="G13">
+        <v>700</v>
+      </c>
+      <c r="H13">
+        <v>75</v>
+      </c>
+      <c r="I13" s="7">
+        <v>100009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75">
+      <c r="A14" s="3">
+        <v>130012</v>
+      </c>
+      <c r="B14" s="2">
         <v>4</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
         <v>200</v>
       </c>
-      <c r="F13">
+      <c r="G14">
         <v>700</v>
       </c>
-      <c r="G13" s="7">
+      <c r="H14">
+        <v>75</v>
+      </c>
+      <c r="I14" s="7">
         <v>100009</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75">
+    <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75">
+      <c r="A16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/grabDoll/config/guild.xlsx
+++ b/grabDoll/config/guild.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <r>
       <rPr>
@@ -156,6 +156,14 @@
   </si>
   <si>
     <t>按下按钮 抓起来一个</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击返回</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -562,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -772,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>200</v>
+        <v>410</v>
       </c>
       <c r="G7">
-        <v>700</v>
+        <v>420</v>
       </c>
       <c r="H7">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I7" s="7">
         <v>100006</v>
@@ -801,13 +809,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="5">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="G8">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="H8">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="I8" s="7">
         <v>100006</v>
@@ -830,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="F9" s="5">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G9">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="H9">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I9" s="7">
         <v>100006</v>
@@ -850,22 +858,22 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
       </c>
       <c r="F10" s="5">
-        <v>200</v>
+        <v>410</v>
       </c>
       <c r="G10">
-        <v>700</v>
+        <v>420</v>
       </c>
       <c r="H10">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I10" s="7">
         <v>100007</v>
@@ -876,28 +884,28 @@
         <v>130009</v>
       </c>
       <c r="B11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
       </c>
       <c r="F11" s="5">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="G11">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="H11">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="I11" s="7">
-        <v>100008</v>
+        <v>100007</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75">
@@ -905,28 +913,28 @@
         <v>130010</v>
       </c>
       <c r="B12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="5">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G12">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="H12">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I12" s="7">
-        <v>100009</v>
+        <v>100007</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75">
@@ -934,28 +942,28 @@
         <v>130011</v>
       </c>
       <c r="B13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
       </c>
       <c r="F13" s="5">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="G13">
-        <v>700</v>
+        <v>530</v>
       </c>
       <c r="H13">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I13" s="7">
-        <v>100009</v>
+        <v>100007</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75">
@@ -963,35 +971,151 @@
         <v>130012</v>
       </c>
       <c r="B14" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E14" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="5">
         <v>200</v>
       </c>
       <c r="G14">
+        <v>550</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
+      <c r="I14" s="7">
+        <v>100008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75">
+      <c r="A15" s="3">
+        <v>130013</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>200</v>
+      </c>
+      <c r="H15">
+        <v>75</v>
+      </c>
+      <c r="I15" s="7">
+        <v>100008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75">
+      <c r="A16" s="3">
+        <v>130014</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>200</v>
+      </c>
+      <c r="G16">
         <v>700</v>
       </c>
-      <c r="H14">
+      <c r="H16">
         <v>75</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I16" s="7">
         <v>100009</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="3"/>
+    <row r="17" spans="1:9" ht="15.75">
+      <c r="A17" s="3">
+        <v>130015</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>200</v>
+      </c>
+      <c r="G17">
+        <v>700</v>
+      </c>
+      <c r="H17">
+        <v>75</v>
+      </c>
+      <c r="I17" s="7">
+        <v>100009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75">
+      <c r="A18" s="3">
+        <v>130016</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>200</v>
+      </c>
+      <c r="G18">
+        <v>700</v>
+      </c>
+      <c r="H18">
+        <v>75</v>
+      </c>
+      <c r="I18" s="7">
+        <v>100009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75">
+      <c r="A20" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1004,7 +1128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>

--- a/grabDoll/config/guild.xlsx
+++ b/grabDoll/config/guild.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <r>
       <rPr>
@@ -165,6 +165,21 @@
   <si>
     <t>点击返回</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainWorld</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击合成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确定</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic</t>
   </si>
 </sst>
 </file>
@@ -570,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -986,7 +1001,7 @@
         <v>200</v>
       </c>
       <c r="G14">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="H14">
         <v>50</v>
@@ -1012,13 +1027,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G15">
-        <v>200</v>
+        <v>410</v>
       </c>
       <c r="H15">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I15" s="7">
         <v>100008</v>
@@ -1029,28 +1044,28 @@
         <v>130014</v>
       </c>
       <c r="B16" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="5">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G16">
-        <v>700</v>
+        <v>265</v>
       </c>
       <c r="H16">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I16" s="7">
-        <v>100009</v>
+        <v>100008</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75">
@@ -1058,28 +1073,28 @@
         <v>130015</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E17" s="5">
         <v>0</v>
       </c>
       <c r="F17" s="5">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="G17">
-        <v>700</v>
+        <v>670</v>
       </c>
       <c r="H17">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="I17" s="7">
-        <v>100009</v>
+        <v>100008</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75">
@@ -1087,13 +1102,13 @@
         <v>130016</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -1112,10 +1127,68 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75">
-      <c r="A19" s="3"/>
+      <c r="A19" s="3">
+        <v>130017</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>200</v>
+      </c>
+      <c r="G19">
+        <v>700</v>
+      </c>
+      <c r="H19">
+        <v>75</v>
+      </c>
+      <c r="I19" s="7">
+        <v>100009</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="15.75">
-      <c r="A20" s="3"/>
+      <c r="A20" s="3">
+        <v>130018</v>
+      </c>
+      <c r="B20" s="2">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>200</v>
+      </c>
+      <c r="G20">
+        <v>700</v>
+      </c>
+      <c r="H20">
+        <v>75</v>
+      </c>
+      <c r="I20" s="7">
+        <v>100009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75">
+      <c r="A22" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1128,7 +1201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>

--- a/grabDoll/config/guild.xlsx
+++ b/grabDoll/config/guild.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <r>
       <rPr>
@@ -175,11 +175,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>点击确定</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Magic</t>
+  </si>
+  <si>
+    <t>关闭弹窗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -585,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1047,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
@@ -1076,10 +1076,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E17" s="5">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E18" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="5">
-        <v>200</v>
+        <v>520</v>
       </c>
       <c r="G18">
-        <v>700</v>
+        <v>30</v>
       </c>
       <c r="H18">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="I18" s="7">
         <v>100009</v>
@@ -1128,28 +1128,28 @@
     </row>
     <row r="19" spans="1:9" ht="15.75">
       <c r="A19" s="3">
-        <v>130017</v>
+        <v>130015</v>
       </c>
       <c r="B19" s="2">
         <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E19" s="5">
         <v>0</v>
       </c>
       <c r="F19" s="5">
+        <v>30</v>
+      </c>
+      <c r="G19">
         <v>200</v>
       </c>
-      <c r="G19">
-        <v>700</v>
-      </c>
       <c r="H19">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="I19" s="7">
         <v>100009</v>
@@ -1157,16 +1157,16 @@
     </row>
     <row r="20" spans="1:9" ht="15.75">
       <c r="A20" s="3">
-        <v>130018</v>
+        <v>130016</v>
       </c>
       <c r="B20" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -1185,10 +1185,68 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75">
-      <c r="A21" s="3"/>
+      <c r="A21" s="3">
+        <v>130017</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>200</v>
+      </c>
+      <c r="G21">
+        <v>700</v>
+      </c>
+      <c r="H21">
+        <v>75</v>
+      </c>
+      <c r="I21" s="7">
+        <v>100009</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="15.75">
-      <c r="A22" s="3"/>
+      <c r="A22" s="3">
+        <v>130018</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5">
+        <v>200</v>
+      </c>
+      <c r="G22">
+        <v>700</v>
+      </c>
+      <c r="H22">
+        <v>75</v>
+      </c>
+      <c r="I22" s="7">
+        <v>100009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75">
+      <c r="A24" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/grabDoll/config/guild.xlsx
+++ b/grabDoll/config/guild.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <r>
       <rPr>
@@ -102,9 +102,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>引导用户召唤5个已获得的娃娃打败坏蛋，获取特殊娃娃。</t>
-  </si>
-  <si>
     <t>恭喜你完成了新手引导，一起来开启专属你的娃娃世界吧！</t>
   </si>
   <si>
@@ -179,6 +176,26 @@
   </si>
   <si>
     <t>关闭弹窗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>占位用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击开始</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤娃娃开启战斗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择你的娃娃</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取奖励</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -585,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -612,13 +629,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>7</v>
@@ -627,10 +644,10 @@
         <v>7</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15">
@@ -641,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
@@ -656,10 +673,10 @@
         <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75">
@@ -670,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>6</v>
@@ -699,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>17</v>
@@ -728,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>16</v>
@@ -757,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
@@ -786,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>15</v>
@@ -815,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>14</v>
@@ -844,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>13</v>
@@ -873,7 +890,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>15</v>
@@ -902,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>14</v>
@@ -931,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>12</v>
@@ -960,10 +977,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
@@ -989,10 +1006,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="5">
         <v>0</v>
@@ -1018,7 +1035,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>11</v>
@@ -1047,10 +1064,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
@@ -1076,10 +1093,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="5">
         <v>0</v>
@@ -1105,10 +1122,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="E18" s="5">
         <v>0</v>
@@ -1128,16 +1145,16 @@
     </row>
     <row r="19" spans="1:9" ht="15.75">
       <c r="A19" s="3">
-        <v>130015</v>
+        <v>130017</v>
       </c>
       <c r="B19" s="2">
         <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="5">
         <v>0</v>
@@ -1157,25 +1174,25 @@
     </row>
     <row r="20" spans="1:9" ht="15.75">
       <c r="A20" s="3">
-        <v>130016</v>
+        <v>130018</v>
       </c>
       <c r="B20" s="2">
         <v>3</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="5">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="G20">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="H20">
         <v>75</v>
@@ -1186,25 +1203,25 @@
     </row>
     <row r="21" spans="1:9" ht="15.75">
       <c r="A21" s="3">
-        <v>130017</v>
+        <v>130019</v>
       </c>
       <c r="B21" s="2">
         <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="5">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G21">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H21">
         <v>75</v>
@@ -1215,25 +1232,25 @@
     </row>
     <row r="22" spans="1:9" ht="15.75">
       <c r="A22" s="3">
-        <v>130018</v>
+        <v>130020</v>
       </c>
       <c r="B22" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E22" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="5">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="G22">
-        <v>700</v>
+        <v>840</v>
       </c>
       <c r="H22">
         <v>75</v>
@@ -1243,10 +1260,184 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75">
-      <c r="A23" s="3"/>
+      <c r="A23" s="3">
+        <v>130021</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>275</v>
+      </c>
+      <c r="G23">
+        <v>670</v>
+      </c>
+      <c r="H23">
+        <v>75</v>
+      </c>
+      <c r="I23" s="7">
+        <v>100009</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="15.75">
-      <c r="A24" s="3"/>
+      <c r="A24" s="3">
+        <v>130022</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>160</v>
+      </c>
+      <c r="G24">
+        <v>320</v>
+      </c>
+      <c r="H24">
+        <v>50</v>
+      </c>
+      <c r="I24" s="7">
+        <v>100009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75">
+      <c r="A25" s="3">
+        <v>130023</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>270</v>
+      </c>
+      <c r="G25">
+        <v>840</v>
+      </c>
+      <c r="H25">
+        <v>50</v>
+      </c>
+      <c r="I25" s="7">
+        <v>100009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75">
+      <c r="A26" s="3">
+        <v>130024</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>270</v>
+      </c>
+      <c r="G26">
+        <v>840</v>
+      </c>
+      <c r="H26">
+        <v>50</v>
+      </c>
+      <c r="I26" s="7">
+        <v>100009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75">
+      <c r="A27" s="3">
+        <v>130024</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>30</v>
+      </c>
+      <c r="G27">
+        <v>200</v>
+      </c>
+      <c r="H27">
+        <v>50</v>
+      </c>
+      <c r="I27" s="7">
+        <v>100009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75">
+      <c r="A28" s="3">
+        <v>130025</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
+        <v>200</v>
+      </c>
+      <c r="G28">
+        <v>700</v>
+      </c>
+      <c r="H28">
+        <v>75</v>
+      </c>
+      <c r="I28" s="7">
+        <v>100009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75">
+      <c r="A30" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
